--- a/MEC/ProcessTable.xlsx
+++ b/MEC/ProcessTable.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ptt-rpafile-u01.ptt.corp\RPA-PTT\Finance And Accounting\Month-End\6 Allocation in BW\Common\1 References\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ptt-rpafile-p01.ptt.corp\RPA-PTT\Finance And Accounting\Month-End\6 Allocation in BW\Common\1 References\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39B13D21-E95A-4A0E-BCFA-BB4F7713A364}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25080" windowHeight="9630" tabRatio="796"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25080" windowHeight="9630" tabRatio="796" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Preallocation_Info" sheetId="6" r:id="rId1"/>
@@ -20,18 +21,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="231">
   <si>
     <t>Value</t>
   </si>
@@ -303,9 +298,6 @@
     <t>12800000</t>
   </si>
   <si>
-    <t>8750800000,8751800000,8752800000</t>
-  </si>
-  <si>
     <t>Costing_ProfitFile</t>
   </si>
   <si>
@@ -694,12 +686,45 @@
   </si>
   <si>
     <t>O-TranspExp.Frm CCA,Total Expense,Margin,PA_O ค่าขนส่ง,NRV,ปรับปรุงมูลค่าสินค้า,Direct Exp.Frm CCA,InDirectExpFrm CCA</t>
+  </si>
+  <si>
+    <t>BusinessArea</t>
+  </si>
+  <si>
+    <t>CostingCOPAProfitCenter</t>
+  </si>
+  <si>
+    <t>AccountCOPAProfitCenter</t>
+  </si>
+  <si>
+    <t>CostingCOPACheckZeroGL</t>
+  </si>
+  <si>
+    <t>AccountCOPACheckZeroGL</t>
+  </si>
+  <si>
+    <t>Total Revenue,Total Revenue,Cost of Good Sold,Cost of Good Sold</t>
+  </si>
+  <si>
+    <t>Total Revenue,Total Revenue,VVCOG Cost of Good S,VVCOG Cost of Good S</t>
+  </si>
+  <si>
+    <t>8750800000 หน่วยธุรกิจน้ำมัน,8751800000 หน่วยธุรกิจค้าปลีก,8752800000 ตลาดหล่อลื่น,8710800000 หน่วยธุรกิจ สนญ.</t>
+  </si>
+  <si>
+    <t>PTTG/8750800000 หน่วยธุรกิจน้ำมัน,PTTG/8751800000 หน่วยธุรกิจค้าปลีก,PTTG/8752800000 ตลาดหล่อลื่น,PTTG/8710800000 หน่วยธุรกิจ สนญ.</t>
+  </si>
+  <si>
+    <t>8750800000,8751800000,8752800000,8710800000</t>
+  </si>
+  <si>
+    <t>10,50,51,52</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -769,7 +794,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -784,6 +809,10 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1063,13 +1092,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E16" sqref="E16"/>
+      <selection pane="topRight" activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1139,16 +1168,16 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>73</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>183</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>184</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>53</v>
@@ -1160,7 +1189,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>6</v>
@@ -1181,7 +1210,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>7</v>
@@ -1202,7 +1231,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>9</v>
@@ -1223,7 +1252,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>10</v>
@@ -1244,7 +1273,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>11</v>
@@ -1265,7 +1294,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>12</v>
@@ -1286,7 +1315,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>13</v>
@@ -1307,7 +1336,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>32</v>
@@ -1322,7 +1351,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>65</v>
@@ -1337,10 +1366,10 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C12" s="5">
         <v>0.33263888888888887</v>
@@ -1358,7 +1387,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>14</v>
@@ -1379,7 +1408,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>28</v>
@@ -1400,7 +1429,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>29</v>
@@ -1421,7 +1450,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>72</v>
@@ -1429,7 +1458,7 @@
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>4</v>
@@ -1437,71 +1466,79 @@
       <c r="G16" s="3"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G17" s="4"/>
+      <c r="A17" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G18" s="4"/>
+      <c r="A18" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G18" s="3"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G19" s="4"/>
+      <c r="A19" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G19" s="3"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G20" s="4"/>
+      <c r="A20" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G20" s="3"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>17</v>
+        <v>71</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
@@ -1513,10 +1550,10 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
@@ -1528,10 +1565,10 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
@@ -1543,10 +1580,10 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
@@ -1558,10 +1595,10 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
@@ -1573,10 +1610,10 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>66</v>
+        <v>18</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
@@ -1588,10 +1625,10 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
@@ -1603,10 +1640,10 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
@@ -1618,10 +1655,10 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
@@ -1633,10 +1670,10 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>25</v>
+        <v>66</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
@@ -1648,10 +1685,10 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
@@ -1663,10 +1700,10 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
@@ -1678,10 +1715,10 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>67</v>
+        <v>24</v>
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
@@ -1693,10 +1730,10 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>68</v>
+        <v>25</v>
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
@@ -1708,10 +1745,10 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
@@ -1723,10 +1760,10 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
@@ -1738,10 +1775,10 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
@@ -1753,10 +1790,10 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
@@ -1768,10 +1805,10 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
@@ -1783,10 +1820,10 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
@@ -1795,6 +1832,66 @@
         <v>4</v>
       </c>
       <c r="G40" s="4"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G41" s="4"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G42" s="4"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G43" s="4"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G44" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1802,20 +1899,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:G83"/>
+  <dimension ref="A1:G84"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F30" sqref="F30:F31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="27.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="62.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="56.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="128.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="47.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="62.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="85.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="45.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.140625" bestFit="1" customWidth="1"/>
@@ -1872,16 +1969,16 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>73</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>183</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>184</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>53</v>
@@ -1893,7 +1990,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>6</v>
@@ -1914,7 +2011,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>74</v>
@@ -1935,7 +2032,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>75</v>
@@ -1956,7 +2053,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>76</v>
@@ -1967,8 +2064,8 @@
       <c r="D6" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>90</v>
+      <c r="E6" s="9" t="s">
+        <v>229</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>4</v>
@@ -1977,7 +2074,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>77</v>
@@ -1998,7 +2095,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>78</v>
@@ -2019,10 +2116,10 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C9" s="5">
         <v>0.33263888888888887</v>
@@ -2031,7 +2128,7 @@
         <v>0.4993055555555555</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>4</v>
@@ -2040,7 +2137,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>83</v>
@@ -2061,42 +2158,42 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>97</v>
-      </c>
       <c r="F11" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="D12" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="E12" s="3" t="s">
         <v>102</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>103</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>4</v>
@@ -2105,15 +2202,15 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>4</v>
@@ -2122,15 +2219,15 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>4</v>
@@ -2139,19 +2236,19 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>4</v>
@@ -2160,19 +2257,19 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>4</v>
@@ -2181,19 +2278,19 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>4</v>
@@ -2202,17 +2299,17 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>4</v>
@@ -2221,15 +2318,15 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>4</v>
@@ -2238,15 +2335,15 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>4</v>
@@ -2255,19 +2352,19 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>4</v>
@@ -2276,19 +2373,19 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>4</v>
@@ -2297,19 +2394,19 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>4</v>
@@ -2318,17 +2415,17 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>4</v>
@@ -2337,15 +2434,15 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>4</v>
@@ -2354,15 +2451,15 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>4</v>
@@ -2371,19 +2468,19 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B27" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="E27" s="3" t="s">
         <v>130</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>131</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>4</v>
@@ -2392,10 +2489,10 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C28" s="3">
         <v>43</v>
@@ -2413,10 +2510,10 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
@@ -2430,19 +2527,19 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>163</v>
+        <v>220</v>
+      </c>
+      <c r="C30" s="3">
+        <v>43</v>
+      </c>
+      <c r="D30" s="3">
+        <v>12</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>230</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>4</v>
@@ -2451,44 +2548,50 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B31" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G31" s="3"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3" t="s">
+      <c r="E32" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="E31" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G31" s="3"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G32" s="4"/>
+      <c r="F32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G32" s="3"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
@@ -2500,10 +2603,10 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
@@ -2515,10 +2618,10 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
@@ -2530,10 +2633,10 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
@@ -2545,10 +2648,10 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
@@ -2560,10 +2663,10 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
@@ -2575,10 +2678,10 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
@@ -2590,10 +2693,10 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
@@ -2605,10 +2708,10 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
@@ -2620,10 +2723,10 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
@@ -2635,10 +2738,10 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>173</v>
+        <v>94</v>
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
@@ -2650,10 +2753,10 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
@@ -2665,10 +2768,10 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>129</v>
+        <v>173</v>
       </c>
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
@@ -2680,10 +2783,10 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
@@ -2695,10 +2798,10 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
@@ -2710,10 +2813,10 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
@@ -2725,10 +2828,10 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
@@ -2740,10 +2843,10 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
@@ -2755,10 +2858,10 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
@@ -2770,10 +2873,10 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
@@ -2785,10 +2888,10 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
@@ -2800,10 +2903,10 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C54" s="4"/>
       <c r="D54" s="4"/>
@@ -2815,10 +2918,10 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
@@ -2830,10 +2933,10 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C56" s="4"/>
       <c r="D56" s="4"/>
@@ -2845,10 +2948,10 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C57" s="4"/>
       <c r="D57" s="4"/>
@@ -2860,16 +2963,14 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>208</v>
+        <v>126</v>
       </c>
       <c r="C58" s="4"/>
       <c r="D58" s="4"/>
-      <c r="E58" s="7" t="s">
-        <v>209</v>
-      </c>
+      <c r="E58" s="4"/>
       <c r="F58" s="4" t="s">
         <v>4</v>
       </c>
@@ -2877,14 +2978,16 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="B59" s="4" t="s">
         <v>207</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>210</v>
       </c>
       <c r="C59" s="4"/>
       <c r="D59" s="4"/>
-      <c r="E59" s="7"/>
+      <c r="E59" s="7" t="s">
+        <v>208</v>
+      </c>
       <c r="F59" s="4" t="s">
         <v>4</v>
       </c>
@@ -2892,10 +2995,10 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C60" s="4"/>
       <c r="D60" s="4"/>
@@ -2907,10 +3010,10 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C61" s="4"/>
       <c r="D61" s="4"/>
@@ -2922,10 +3025,10 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C62" s="4"/>
       <c r="D62" s="4"/>
@@ -2937,10 +3040,10 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C63" s="4"/>
       <c r="D63" s="4"/>
@@ -2952,14 +3055,14 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>165</v>
+        <v>213</v>
       </c>
       <c r="C64" s="4"/>
       <c r="D64" s="4"/>
-      <c r="E64" s="4"/>
+      <c r="E64" s="7"/>
       <c r="F64" s="4" t="s">
         <v>4</v>
       </c>
@@ -2967,10 +3070,10 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C65" s="4"/>
       <c r="D65" s="4"/>
@@ -2982,10 +3085,10 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C66" s="4"/>
       <c r="D66" s="4"/>
@@ -2997,10 +3100,10 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C67" s="4"/>
       <c r="D67" s="4"/>
@@ -3012,10 +3115,10 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C68" s="4"/>
       <c r="D68" s="4"/>
@@ -3027,10 +3130,10 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C69" s="4"/>
       <c r="D69" s="4"/>
@@ -3042,10 +3145,10 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C70" s="4"/>
       <c r="D70" s="4"/>
@@ -3057,10 +3160,10 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C71" s="4"/>
       <c r="D71" s="4"/>
@@ -3072,10 +3175,10 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>200</v>
+        <v>171</v>
       </c>
       <c r="C72" s="4"/>
       <c r="D72" s="4"/>
@@ -3087,10 +3190,10 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C73" s="4"/>
       <c r="D73" s="4"/>
@@ -3102,10 +3205,10 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C74" s="4"/>
       <c r="D74" s="4"/>
@@ -3117,10 +3220,10 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C75" s="4"/>
       <c r="D75" s="4"/>
@@ -3132,10 +3235,10 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C76" s="4"/>
       <c r="D76" s="4"/>
@@ -3147,10 +3250,10 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C77" s="4"/>
       <c r="D77" s="4"/>
@@ -3162,10 +3265,10 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>176</v>
+        <v>204</v>
       </c>
       <c r="C78" s="4"/>
       <c r="D78" s="4"/>
@@ -3177,10 +3280,10 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C79" s="4"/>
       <c r="D79" s="4"/>
@@ -3192,10 +3295,10 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C80" s="4"/>
       <c r="D80" s="4"/>
@@ -3207,10 +3310,10 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C81" s="4"/>
       <c r="D81" s="4"/>
@@ -3222,10 +3325,10 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C82" s="4"/>
       <c r="D82" s="4"/>
@@ -3237,10 +3340,10 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C83" s="4"/>
       <c r="D83" s="4"/>
@@ -3250,6 +3353,21 @@
       </c>
       <c r="G83" s="4"/>
     </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="C84" s="4"/>
+      <c r="D84" s="4"/>
+      <c r="E84" s="4"/>
+      <c r="F84" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G84" s="4"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
